--- a/Application/data/造价表.xlsx
+++ b/Application/data/造价表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\Application\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87C3103-A994-4C03-B942-A1F2F0D4DEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231B512B-BA41-4A23-A417-CCB390CC6A0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14025" yWindow="0" windowWidth="14790" windowHeight="15555" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="3510" yWindow="45" windowWidth="21675" windowHeight="15555" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,850 - 5,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>High Quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,59 +56,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">27,100 - 32,500+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,500 - 26,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21,900 - 26,700+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">8,600 - 13,400
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,800 - 8,600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,700 - 11,900
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,200 - 7,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,300 - 12,700
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,700 - 8,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,500 - 13,100
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8,100 - 12,400
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,500 - 8,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">N/A
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,406 +104,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">32,100 - 39,700+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,900 - 31,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28,700 - 34,800+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,700 - 25,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14,400 - 19,100
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,800 - 13,900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,100 - 15,700
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,100 - 11,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14,000 - 18,100
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,300 - 12,700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14,200 - 18,800
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,400 - 13,500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13,100 - 17,300
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,900 - 12,700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13,600 - 18,200
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,100 - 13,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13,100 - 17,100
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,700 - 12,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">14,100 - 18,700
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12,900 - 17,100
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,500 - 12,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,500 - 12,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Industrial </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10,100 - 12,400
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13,100 - 19,700</t>
-  </si>
-  <si>
     <t>End User; Low Rise</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2,950 - 4,000
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,150 - 7,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,600 - 3,650
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,750 - 6,700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,850 - 3,850
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,950 - 7,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,850 - 4,000
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100 - 7,300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,750 - 3,750
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,850 - 7,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,800 - 3,800
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,950 - 7,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,650 - 3,650
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2,850 - 3,950
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basement; up to 2 Levels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">19,800 - 27,400+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,900 - 11,500</t>
-  </si>
-  <si>
     <t>Multi-Storey</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10,300 - 12,900+
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4,250 -  7,300
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3,850 -  6,300
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,050 - 6,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100 -  6,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,150 -  7,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,050 -  6,800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,450 -  7,400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,050 - 7,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21,700 - 30,900+</t>
-  </si>
-  <si>
-    <t>17,100 - 22,000+</t>
-  </si>
-  <si>
-    <t>8,500 - 12,600</t>
-  </si>
-  <si>
-    <t>7,200 - 10,400</t>
-  </si>
-  <si>
-    <t>7,800 - 11,800</t>
-  </si>
-  <si>
-    <t>8,200 - 12,200</t>
-  </si>
-  <si>
-    <t>7,600 - 11,300</t>
-  </si>
-  <si>
-    <t>7,900 - 12,100</t>
-  </si>
-  <si>
-    <t>7,500 - 11,100</t>
-  </si>
-  <si>
-    <t>8,100 - 12,300</t>
-  </si>
-  <si>
-    <t>17,900 - 21,800</t>
-  </si>
-  <si>
-    <t>15,300 - 19,200</t>
-  </si>
-  <si>
-    <t>10,600 - 14,400</t>
-  </si>
-  <si>
-    <t>4,250 - 5,900</t>
-  </si>
-  <si>
-    <t>3,900 - 5,200</t>
-  </si>
-  <si>
-    <t>4,100 - 5,500</t>
-  </si>
-  <si>
-    <t>4,250 - 5,600</t>
-  </si>
-  <si>
-    <t>4,000 -  5,350</t>
-  </si>
-  <si>
-    <t>4,100 - 5,600</t>
-  </si>
-  <si>
-    <t>4,200 - 5,700</t>
-  </si>
-  <si>
-    <t>3,850 - 5,150</t>
-  </si>
-  <si>
-    <t>22,500 - 33,400+</t>
-  </si>
-  <si>
-    <t>14,200 - 19,700+</t>
-  </si>
-  <si>
-    <t>4,900 - 6,800</t>
-  </si>
-  <si>
-    <t>4,050 - 5,700</t>
-  </si>
-  <si>
-    <t>4,500 -  6,200</t>
-  </si>
-  <si>
-    <t>4,600 - 6,600</t>
-  </si>
-  <si>
-    <t>4,350 - 5,900</t>
-  </si>
-  <si>
-    <t>4,550 - 6,400</t>
-  </si>
-  <si>
-    <t>4,200 -  6,050</t>
-  </si>
-  <si>
-    <t>4,650 - 6,600</t>
-  </si>
-  <si>
-    <t>4,200 - 6,100</t>
-  </si>
-  <si>
-    <t>16,300 - 19,300</t>
-  </si>
-  <si>
-    <t>14,800 - 16,100</t>
-  </si>
-  <si>
-    <t>7,900 - 9,600</t>
-  </si>
-  <si>
-    <t>2,750 - 3,700</t>
-  </si>
-  <si>
-    <t>2,450 - 3,350</t>
-  </si>
-  <si>
-    <t>2,650 - 3,550</t>
-  </si>
-  <si>
-    <t>2,650 - 3,600</t>
-  </si>
-  <si>
-    <t>2,600 - 3,500</t>
-  </si>
-  <si>
-    <t>2,600 - 3,600</t>
-  </si>
-  <si>
-    <t>32,400 - 48,400+</t>
-  </si>
-  <si>
-    <t>5,350 - 7,600</t>
-  </si>
-  <si>
-    <t>4,450 - 6,300</t>
-  </si>
-  <si>
-    <t>4,900 - 6,900</t>
-  </si>
-  <si>
-    <t>5,050 - 7,300</t>
-  </si>
-  <si>
-    <t>4,850 - 7,100</t>
-  </si>
-  <si>
-    <t>4,600 - 6,700</t>
-  </si>
-  <si>
-    <t>5,150 - 7,300</t>
-  </si>
-  <si>
-    <t>22,100 - 27,900</t>
-  </si>
-  <si>
-    <t>3,600 - 4,650</t>
-  </si>
-  <si>
-    <t>3,050 - 3,950</t>
-  </si>
-  <si>
-    <t>3,350 - 4,300</t>
-  </si>
-  <si>
-    <t>3,450 - 4,550</t>
-  </si>
-  <si>
-    <t>3,200 - 4,100</t>
-  </si>
-  <si>
-    <t>3,450 - 4,350</t>
-  </si>
-  <si>
-    <t>3,200 - 4,200</t>
-  </si>
-  <si>
-    <t>3,450 - 4,450</t>
-  </si>
-  <si>
-    <t>29,500 - 48,000+</t>
   </si>
   <si>
     <r>
@@ -608,9 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,800 - 8,500+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carpark </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,6 +230,403 @@
   <si>
     <t>Landlord; High Rise</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21700 - 30900+</t>
+  </si>
+  <si>
+    <t>17100 - 22000+</t>
+  </si>
+  <si>
+    <t>8500 - 12600</t>
+  </si>
+  <si>
+    <t>7200 - 10400</t>
+  </si>
+  <si>
+    <t>7800 - 11800</t>
+  </si>
+  <si>
+    <t>8200 - 12200</t>
+  </si>
+  <si>
+    <t>7600 - 11300</t>
+  </si>
+  <si>
+    <t>7900 - 12100</t>
+  </si>
+  <si>
+    <t>7500 - 11100</t>
+  </si>
+  <si>
+    <t>8100 - 12300</t>
+  </si>
+  <si>
+    <t>17900 - 21800</t>
+  </si>
+  <si>
+    <t>15300 - 19200</t>
+  </si>
+  <si>
+    <t>10600 - 14400</t>
+  </si>
+  <si>
+    <t>4250 - 5900</t>
+  </si>
+  <si>
+    <t>3900 - 5200</t>
+  </si>
+  <si>
+    <t>4100 - 5500</t>
+  </si>
+  <si>
+    <t>4250 - 5600</t>
+  </si>
+  <si>
+    <t>4000 -  5350</t>
+  </si>
+  <si>
+    <t>4100 - 5600</t>
+  </si>
+  <si>
+    <t>4200 - 5700</t>
+  </si>
+  <si>
+    <t>3850 - 5150</t>
+  </si>
+  <si>
+    <t>3850 - 5200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27100 - 32500+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21900 - 26700+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8600 - 13400
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7700 - 11900
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8300 - 12700
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8500 - 13100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8100 - 12400
+</t>
+  </si>
+  <si>
+    <t>21500 - 26500</t>
+  </si>
+  <si>
+    <t>6800 - 8600</t>
+  </si>
+  <si>
+    <t>6200 - 7800</t>
+  </si>
+  <si>
+    <t>6700 - 8200</t>
+  </si>
+  <si>
+    <t>6500 - 8000</t>
+  </si>
+  <si>
+    <t>22500 - 33400+</t>
+  </si>
+  <si>
+    <t>14200 - 19700+</t>
+  </si>
+  <si>
+    <t>4900 - 6800</t>
+  </si>
+  <si>
+    <t>4050 - 5700</t>
+  </si>
+  <si>
+    <t>4500 -  6200</t>
+  </si>
+  <si>
+    <t>4600 - 6600</t>
+  </si>
+  <si>
+    <t>4350 - 5900</t>
+  </si>
+  <si>
+    <t>4550 - 6400</t>
+  </si>
+  <si>
+    <t>4200 -  6050</t>
+  </si>
+  <si>
+    <t>4650 - 6600</t>
+  </si>
+  <si>
+    <t>4200 - 6100</t>
+  </si>
+  <si>
+    <t>16300 - 19300</t>
+  </si>
+  <si>
+    <t>14800 - 16100</t>
+  </si>
+  <si>
+    <t>7900 - 9600</t>
+  </si>
+  <si>
+    <t>2750 - 3700</t>
+  </si>
+  <si>
+    <t>2450 - 3350</t>
+  </si>
+  <si>
+    <t>2650 - 3550</t>
+  </si>
+  <si>
+    <t>2650 - 3600</t>
+  </si>
+  <si>
+    <t>2600 - 3500</t>
+  </si>
+  <si>
+    <t>2600 - 3600</t>
+  </si>
+  <si>
+    <t>32400 - 48400+</t>
+  </si>
+  <si>
+    <t>5350 - 7600</t>
+  </si>
+  <si>
+    <t>4450 - 6300</t>
+  </si>
+  <si>
+    <t>4900 - 6900</t>
+  </si>
+  <si>
+    <t>5050 - 7300</t>
+  </si>
+  <si>
+    <t>4850 - 7100</t>
+  </si>
+  <si>
+    <t>4600 - 6700</t>
+  </si>
+  <si>
+    <t>5150 - 7300</t>
+  </si>
+  <si>
+    <t>22100 - 27900</t>
+  </si>
+  <si>
+    <t>3600 - 4650</t>
+  </si>
+  <si>
+    <t>3050 - 3950</t>
+  </si>
+  <si>
+    <t>3350 - 4300</t>
+  </si>
+  <si>
+    <t>3450 - 4550</t>
+  </si>
+  <si>
+    <t>3200 - 4100</t>
+  </si>
+  <si>
+    <t>3450 - 4350</t>
+  </si>
+  <si>
+    <t>3200 - 4200</t>
+  </si>
+  <si>
+    <t>3450 - 4450</t>
+  </si>
+  <si>
+    <t>29500 - 48000+</t>
+  </si>
+  <si>
+    <t>3800 - 8500+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32100 - 39700+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28700 - 34800+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14400 - 19100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12100 - 15700
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14000 - 18100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14200 - 18800
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13100 - 17300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13600 - 18200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13100 - 17100
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14100 - 18700
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12900 - 17100
+</t>
+  </si>
+  <si>
+    <t>26900 - 31500</t>
+  </si>
+  <si>
+    <t>22700 - 25500</t>
+  </si>
+  <si>
+    <t>10800 - 13900</t>
+  </si>
+  <si>
+    <t>9100 - 11500</t>
+  </si>
+  <si>
+    <t>10300 - 12700</t>
+  </si>
+  <si>
+    <t>10400 - 13500</t>
+  </si>
+  <si>
+    <t>9900 - 12700</t>
+  </si>
+  <si>
+    <t>10100 - 13300</t>
+  </si>
+  <si>
+    <t>9700 - 12400</t>
+  </si>
+  <si>
+    <t>9500 - 12300</t>
+  </si>
+  <si>
+    <t>9500 - 12400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10100 - 12400
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2950 - 4000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600 - 3650
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850 - 3850
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850 - 4000
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750 - 3750
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800 - 3800
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2650 - 3650
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850 - 3950
+</t>
+  </si>
+  <si>
+    <t>13100 - 19700</t>
+  </si>
+  <si>
+    <t>4150 - 7400</t>
+  </si>
+  <si>
+    <t>3750 - 6700</t>
+  </si>
+  <si>
+    <t>3950 - 7300</t>
+  </si>
+  <si>
+    <t>4100 - 7300</t>
+  </si>
+  <si>
+    <t>3850 - 7200</t>
+  </si>
+  <si>
+    <t>3950 - 7200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19800 - 27400+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10300 - 12900+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4250 -  7300
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3850 -  6300
+</t>
+  </si>
+  <si>
+    <t>4050 - 7000</t>
+  </si>
+  <si>
+    <t>4450 -  7400</t>
+  </si>
+  <si>
+    <t>4050 -  6800</t>
+  </si>
+  <si>
+    <t>4150 -  7100</t>
+  </si>
+  <si>
+    <t>4100 -  6800</t>
+  </si>
+  <si>
+    <t>4050 - 6800</t>
+  </si>
+  <si>
+    <t>8900 - 11500</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1088,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="25" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1157,43 +1111,43 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1223,43 +1177,43 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1268,43 +1222,43 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1313,43 +1267,43 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1358,7 +1312,7 @@
     </row>
     <row r="6" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1379,43 +1333,43 @@
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1424,43 +1378,43 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1469,7 +1423,7 @@
     </row>
     <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1490,43 +1444,43 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1535,43 +1489,43 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1580,43 +1534,43 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1625,43 +1579,43 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1670,43 +1624,43 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1715,43 +1669,43 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1760,43 +1714,43 @@
     </row>
     <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1805,7 +1759,7 @@
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1826,43 +1780,43 @@
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1871,43 +1825,43 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1916,7 +1870,7 @@
     </row>
     <row r="20" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1937,43 +1891,43 @@
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1982,43 +1936,43 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2027,7 +1981,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2048,43 +2002,43 @@
     </row>
     <row r="24" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2093,43 +2047,43 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
